--- a/data/trans_bre/P57_AF_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P57_AF_R-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>6.139034993425851</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4.110032119195372</v>
+        <v>4.110032119195367</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1098181758166628</v>
@@ -649,7 +649,7 @@
         <v>0.09262298147721026</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.08310557634203961</v>
+        <v>0.08310557634203947</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.67432369844255</v>
+        <v>2.193511426546867</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.185551749607319</v>
+        <v>2.156538222300348</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.071389193021089</v>
+        <v>-1.906233199093382</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.406016825686764</v>
+        <v>-3.657768469028159</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.03407745122099895</v>
+        <v>0.0281801059924794</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03043229016154105</v>
+        <v>0.02965502957735826</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.03052468941193511</v>
+        <v>-0.02616756843880686</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.04597158459344029</v>
+        <v>-0.06430324653551031</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.02393728580455</v>
+        <v>14.50528105464878</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.49870322827698</v>
+        <v>18.73877848353672</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.25529396066431</v>
+        <v>14.21608696553819</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.52909517956464</v>
+        <v>12.3579482046254</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2060116081932529</v>
+        <v>0.2001069204810261</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.299610666121962</v>
+        <v>0.3026655672795237</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2263002622386742</v>
+        <v>0.2307865427775099</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2547200674627584</v>
+        <v>0.2808000615445425</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.3931084433052345</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-3.186879564860812</v>
+        <v>-3.186879564860823</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06130645817289519</v>
@@ -749,7 +749,7 @@
         <v>0.004868033245170661</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.0569246770043754</v>
+        <v>-0.0569246770043756</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.296115509095954</v>
+        <v>-2.442979422623964</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-5.411649562954237</v>
+        <v>-5.61406104691178</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-4.595473731121522</v>
+        <v>-4.878876104345395</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-10.1001189730987</v>
+        <v>-10.332687872453</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.03453061340092203</v>
+        <v>-0.04037723949189938</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1008806671999766</v>
+        <v>-0.1052105755056221</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.05547367621264918</v>
+        <v>-0.05825507698213035</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1676449082101555</v>
+        <v>-0.168846664177314</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.978710524541551</v>
+        <v>9.39097823234596</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.719296343901713</v>
+        <v>7.775293521313217</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.452110166743954</v>
+        <v>5.131694998234598</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.728245245327093</v>
+        <v>3.493469600471012</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1826089038931538</v>
+        <v>0.1675392074150647</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1624568532171208</v>
+        <v>0.1618808200918974</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06971760547086558</v>
+        <v>0.06577604779208304</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.07183938837605734</v>
+        <v>0.06625497353963065</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.615079713714686</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7.539646058691324</v>
+        <v>7.539646058691329</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.1196711060724669</v>
@@ -849,7 +849,7 @@
         <v>0.04983276930602906</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1863343744522457</v>
+        <v>0.1863343744522458</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-13.29638322689197</v>
+        <v>-13.33802277921203</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3420457930007599</v>
+        <v>0.0959558943297609</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.785349770194567</v>
+        <v>-2.910818615617453</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7759629988231845</v>
+        <v>0.8951766205697643</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2642558160847019</v>
+        <v>-0.261965325651657</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.005716598333892398</v>
+        <v>0.001453601720281044</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.03817786374624911</v>
+        <v>-0.03848764507988035</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.0201788816190536</v>
+        <v>0.02092058429235998</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.779780382945784</v>
+        <v>1.458506840926365</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>16.0431669148529</v>
+        <v>16.01994035174941</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.50046488662038</v>
+        <v>9.886027904111842</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14.21866966589619</v>
+        <v>14.41878411984541</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.04019968586805375</v>
+        <v>0.03453429520497533</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2988064671592908</v>
+        <v>0.2971032032756922</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1526021856244871</v>
+        <v>0.1416450524428478</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3958610797415804</v>
+        <v>0.4067718192194003</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-9.46893489699556</v>
+        <v>-9.269551880875939</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4399361700663321</v>
+        <v>0.7904455554135936</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.643962857256324</v>
+        <v>-3.711303750309478</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.263271403893327</v>
+        <v>-1.474960530380447</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1390649909411797</v>
+        <v>-0.1379233023749017</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.008178766024159156</v>
+        <v>0.01511120202479458</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.09134043359946656</v>
+        <v>-0.09332406258413953</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.04350734193067834</v>
+        <v>-0.05494332626038174</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.826482262597242</v>
+        <v>4.366144205078863</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>16.35471039606056</v>
+        <v>15.85493424705095</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>11.25588925104193</v>
+        <v>10.84620458041849</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11.57658956456256</v>
+        <v>12.19542866177535</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.07725514687224169</v>
+        <v>0.07206097754188784</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3927731932839603</v>
+        <v>0.3737147981219763</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3505735226186615</v>
+        <v>0.3431765049981673</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5761990490069471</v>
+        <v>0.5719722237014067</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>0.9156449364858932</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.7534906609551029</v>
+        <v>0.7534906609550807</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08663279055677531</v>
@@ -1049,7 +1049,7 @@
         <v>0.01078035414295253</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.008285345264807382</v>
+        <v>0.008285345264807136</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.440877746220082</v>
+        <v>-2.464968117080499</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.409060881415147</v>
+        <v>4.470976371647937</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.957418419834228</v>
+        <v>-5.779045738825558</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.28147960257533</v>
+        <v>-4.073734305407982</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.04600673601435409</v>
+        <v>-0.0344135587647003</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07367432249406719</v>
+        <v>0.07653317479283389</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.06748294899408656</v>
+        <v>-0.06462421507226893</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.04546164843076773</v>
+        <v>-0.04294352096501234</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.01342772520045</v>
+        <v>14.48745831740506</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>23.44222542380798</v>
+        <v>23.46542800789013</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.68406682070975</v>
+        <v>7.84607291339849</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.316336015919111</v>
+        <v>5.715787149170192</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.240721935625504</v>
+        <v>0.2258106049251628</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.497317655948823</v>
+        <v>0.4873856259332875</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09500667178584013</v>
+        <v>0.09698466848425845</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.07229630844402561</v>
+        <v>0.06613215063995721</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>4.335726258652017</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.3327980512228768</v>
+        <v>0.3327980512228657</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.06069049130169849</v>
@@ -1149,7 +1149,7 @@
         <v>0.05977517017756861</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.008851416373126898</v>
+        <v>0.008851416373126603</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-11.20687361530909</v>
+        <v>-12.21222174681475</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-0.1224497537424399</v>
+        <v>0.3578755953705843</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-3.655952979023004</v>
+        <v>-3.353209713963961</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-6.692373415952538</v>
+        <v>-6.541803052234742</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1762916556575602</v>
+        <v>-0.1917457192170459</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.00229677542028172</v>
+        <v>0.00529788934573082</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.04668979200653225</v>
+        <v>-0.04516484390954423</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1604127012829109</v>
+        <v>-0.1590342249712992</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>4.694242447431059</v>
+        <v>4.489421836024105</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>16.45058978900387</v>
+        <v>17.91773711250464</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11.68100867449394</v>
+        <v>12.01927118952528</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7.552781844843051</v>
+        <v>7.104679274611199</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.08749611374306067</v>
+        <v>0.0821460475412386</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3058366803728006</v>
+        <v>0.3267679835988812</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1703973534836618</v>
+        <v>0.1742338714937986</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2264677192926276</v>
+        <v>0.2120120330414702</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>-2.357612019832334</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-2.400305287956339</v>
+        <v>-2.40030528795635</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.1690654603161813</v>
@@ -1249,7 +1249,7 @@
         <v>-0.02985717844148155</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.04355432690725566</v>
+        <v>-0.04355432690725586</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-13.10206419722573</v>
+        <v>-12.192695165179</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.23317633236599</v>
+        <v>-0.1404193069350917</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-7.336484053498972</v>
+        <v>-7.037604024875231</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-7.984727006853063</v>
+        <v>-7.724457957463279</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2844020115646489</v>
+        <v>-0.267185138680753</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.004599524507563593</v>
+        <v>-0.001601807407339287</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.08978650932248185</v>
+        <v>-0.0874921514991661</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.1351902266447269</v>
+        <v>-0.1309510198911552</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-1.894505158867209</v>
+        <v>-1.407648810107961</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.65827100722453</v>
+        <v>10.51759523918204</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.071651953900021</v>
+        <v>2.18598841538014</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.007854843327216</v>
+        <v>3.140715710101225</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.0484349255687767</v>
+        <v>-0.03378369473169596</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2011037740558076</v>
+        <v>0.2042071761020848</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04005029465915122</v>
+        <v>0.02865439869911458</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.05834076842095987</v>
+        <v>0.05940859545590451</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>3.564727202799667</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2.838883196768882</v>
+        <v>2.838883196768871</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09254537968268919</v>
@@ -1349,7 +1349,7 @@
         <v>0.04218675014484071</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.03493738312371205</v>
+        <v>0.03493738312371191</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.215260448726944</v>
+        <v>2.449542202853014</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-6.173900887326528</v>
+        <v>-5.983705710025756</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.04774325929819125</v>
+        <v>0.2321898022824553</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.8159193150079054</v>
+        <v>-0.8567231021649114</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.03051229909137278</v>
+        <v>0.03370917476100554</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.06997098059502262</v>
+        <v>-0.06839755974187221</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0006360140212758841</v>
+        <v>0.002705478822706284</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.009198676270929122</v>
+        <v>-0.01030692555684409</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>11.15595638824903</v>
+        <v>11.10418050053958</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.067406301693498</v>
+        <v>1.423564364341784</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>6.939125607163364</v>
+        <v>6.878531569027457</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>7.478042434877903</v>
+        <v>7.091373342521081</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1600882196612788</v>
+        <v>0.1592026738164124</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01285590549067506</v>
+        <v>0.01719418314878368</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08475584912328155</v>
+        <v>0.08250288495609102</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.09526271497836523</v>
+        <v>0.09064888795556658</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>2.152944067154183</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1.19037355368744</v>
+        <v>1.190373553687452</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.009009536487437983</v>
@@ -1449,7 +1449,7 @@
         <v>0.0291174109103958</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.02088417788221221</v>
+        <v>0.02088417788221241</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.801775749117506</v>
+        <v>-1.69212090711841</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.696721525532696</v>
+        <v>2.4291691098627</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.02491281680542535</v>
+        <v>-0.009479831619666163</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.181274526882787</v>
+        <v>-0.9476334309292683</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.02916323513818467</v>
+        <v>-0.02732422053942747</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04291097798045796</v>
+        <v>0.03825120173681956</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.0001548344186971378</v>
+        <v>6.619098764923715e-05</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.02015625820913898</v>
+        <v>-0.01646188489909464</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.034710839956372</v>
+        <v>3.179878149986967</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.473677099831819</v>
+        <v>6.993740007941509</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.226915261584177</v>
+        <v>4.10477421349144</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.597057363913399</v>
+        <v>3.87716136475369</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.05092796170733112</v>
+        <v>0.05348114458953988</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1240048970385292</v>
+        <v>0.1149239626453134</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05822483077539935</v>
+        <v>0.05586818248293993</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.0638291762346806</v>
+        <v>0.06993950159073969</v>
       </c>
     </row>
     <row r="31">
